--- a/Measurement/Resources/计量Ipad项目版本说明.xlsx
+++ b/Measurement/Resources/计量Ipad项目版本说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>Measurement_v0.0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成左侧导航栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年12月23日21:09:07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Measurement_v0.0.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -584,6 +596,17 @@
       </c>
       <c r="C7" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Measurement/Resources/计量Ipad项目版本说明.xlsx
+++ b/Measurement/Resources/计量Ipad项目版本说明.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>Measurement_v0.0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成网络请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年12月23日23:37:46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Measurement_v0.0.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -607,6 +619,17 @@
       </c>
       <c r="C8" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Measurement/Resources/计量Ipad项目版本说明.xlsx
+++ b/Measurement/Resources/计量Ipad项目版本说明.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,7 +117,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>实现uitextfield的类似百度的下拉选项，网络请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年01月06日01:04:13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Measurement_v0.0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Measurement_v0.0.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -623,13 +635,24 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Measurement/Resources/计量Ipad项目版本说明.xlsx
+++ b/Measurement/Resources/计量Ipad项目版本说明.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,18 @@
   </si>
   <si>
     <t>Measurement_v0.0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加计划详情界面基本完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年01月08日13:46:09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Measurement_v0.0.9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -653,6 +665,17 @@
       </c>
       <c r="C10" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Measurement/Resources/计量Ipad项目版本说明.xlsx
+++ b/Measurement/Resources/计量Ipad项目版本说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
+    <workbookView xWindow="1860" yWindow="260" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,18 @@
   </si>
   <si>
     <t>Measurement_v0.0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新整理整个项目文件夹目录，分类更加明确，我创建的计划模块完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年01月11日23:54:37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Measurement_v0.1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -676,6 +688,17 @@
       </c>
       <c r="C11" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Measurement/Resources/计量Ipad项目版本说明.xlsx
+++ b/Measurement/Resources/计量Ipad项目版本说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="260" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,7 +153,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>实现扫描功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年01月19日00:00:54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Measurement_v0.1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Measurement_v0.1.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -692,13 +704,24 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Measurement/Resources/计量Ipad项目版本说明.xlsx
+++ b/Measurement/Resources/计量Ipad项目版本说明.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,6 +166,18 @@
   </si>
   <si>
     <t>Measurement_v0.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目基本完成 剩余修改bug问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2015年03月19日01:36:14 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Measurement_v0.1.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -722,6 +734,17 @@
       </c>
       <c r="C13" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Measurement/Resources/计量Ipad项目版本说明.xlsx
+++ b/Measurement/Resources/计量Ipad项目版本说明.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,7 +177,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>修改下厂任务返回我的设备列表重新刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年03月26日00:32:52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Measurement_v0.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Measurement_v0.1.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -738,13 +750,24 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
